--- a/xlsx/单位数据.xlsx
+++ b/xlsx/单位数据.xlsx
@@ -68,7 +68,7 @@
     <col min="5" max="5" width="22.59765625" customWidth="true"/>
     <col min="6" max="6" width="21.42578125" customWidth="true"/>
     <col min="7" max="7" width="16.62109375" customWidth="true"/>
-    <col min="8" max="8" width="18.81640625" customWidth="true"/>
+    <col min="8" max="8" width="14.078125" customWidth="true"/>
     <col min="9" max="9" width="9.33984375" customWidth="true"/>
     <col min="10" max="10" width="10.0390625" customWidth="true"/>
     <col min="11" max="11" width="14.58203125" customWidth="true"/>
@@ -80,7 +80,7 @@
     <col min="17" max="17" width="40.3671875" customWidth="true"/>
     <col min="18" max="18" width="19.85546875" customWidth="true"/>
     <col min="19" max="19" width="8.8828125" customWidth="true"/>
-    <col min="20" max="20" width="9.33984375" customWidth="true"/>
+    <col min="20" max="20" width="10.28515625" customWidth="true"/>
     <col min="21" max="21" width="10.15234375" customWidth="true"/>
     <col min="22" max="22" width="11.12890625" customWidth="true"/>
     <col min="23" max="23" width="59.3671875" customWidth="true"/>
@@ -942,8 +942,10 @@
           <t>hfoo</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>1000.0</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -999,11 +1001,15 @@
           <t>|cffBA55D3我</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>666.0</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>666.0</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1020,14 +1026,20 @@
           <t>AInv,Ahar,Ahrp</t>
         </is>
       </c>
-      <c r="T6" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>500.0</v>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
@@ -1096,11 +1108,15 @@
           <t>units\human\HeroPaladin\HeroPaladin.mdx</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.0</v>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1112,11 +1128,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="T7" t="n">
-        <v>410.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.0</v>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>410.0</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1133,8 +1153,10 @@
           <t>normal</t>
         </is>
       </c>
-      <c r="AA7" t="n">
-        <v>0.0</v>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1146,14 +1168,20 @@
           <t>STR</t>
         </is>
       </c>
-      <c r="AE7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1.0</v>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
@@ -1175,11 +1203,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AM7" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3000.0</v>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
@@ -1196,16 +1228,20 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="AX7" t="n">
-        <v>950.0</v>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>950.0</t>
+        </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="BA7" t="n">
-        <v>1.0</v>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BC7" t="inlineStr">
         <is>
@@ -1217,16 +1253,20 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="BG7" t="n">
-        <v>1000.0</v>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BJ7" t="n">
-        <v>1.0</v>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BK7" t="inlineStr">
         <is>
@@ -1238,8 +1278,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BO7" t="n">
-        <v>1.0</v>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
@@ -1261,8 +1303,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BT7" t="n">
-        <v>1.0</v>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
@@ -1316,11 +1360,15 @@
           <t>units\nightelf\HeroMoonPriestess\HeroMoonPriestess.mdx</t>
         </is>
       </c>
-      <c r="O8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.0</v>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1332,11 +1380,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="T8" t="n">
-        <v>410.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.0</v>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>410.0</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1353,8 +1405,10 @@
           <t>normal</t>
         </is>
       </c>
-      <c r="AA8" t="n">
-        <v>0.0</v>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1366,14 +1420,20 @@
           <t>STR</t>
         </is>
       </c>
-      <c r="AE8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1.0</v>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
@@ -1395,11 +1455,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AM8" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3000.0</v>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
@@ -1416,16 +1480,20 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="AX8" t="n">
-        <v>950.0</v>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>950.0</t>
+        </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="BA8" t="n">
-        <v>1.0</v>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BC8" t="inlineStr">
         <is>
@@ -1437,16 +1505,20 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="BG8" t="n">
-        <v>1000.0</v>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BJ8" t="n">
-        <v>1.0</v>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BK8" t="inlineStr">
         <is>
@@ -1458,8 +1530,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BO8" t="n">
-        <v>1.0</v>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
@@ -1481,8 +1555,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BT8" t="n">
-        <v>1.0</v>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
@@ -1536,11 +1612,15 @@
           <t>units\human\HeroPaladin\HeroPaladin.mdx</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.0</v>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1552,11 +1632,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="T9" t="n">
-        <v>410.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.0</v>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>410.0</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1573,8 +1657,10 @@
           <t>normal</t>
         </is>
       </c>
-      <c r="AA9" t="n">
-        <v>0.0</v>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -1586,14 +1672,20 @@
           <t>AGI</t>
         </is>
       </c>
-      <c r="AE9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1.0</v>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
@@ -1615,11 +1707,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AM9" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3000.0</v>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
@@ -1636,16 +1732,20 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="AX9" t="n">
-        <v>950.0</v>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>950.0</t>
+        </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="BA9" t="n">
-        <v>1.0</v>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BC9" t="inlineStr">
         <is>
@@ -1657,16 +1757,20 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="BG9" t="n">
-        <v>1000.0</v>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BJ9" t="n">
-        <v>1.0</v>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BK9" t="inlineStr">
         <is>
@@ -1678,8 +1782,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BO9" t="n">
-        <v>1.0</v>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
@@ -1701,8 +1807,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BT9" t="n">
-        <v>1.0</v>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
@@ -1756,11 +1864,15 @@
           <t>units\nightelf\HeroMoonPriestess\HeroMoonPriestess.mdx</t>
         </is>
       </c>
-      <c r="O10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.0</v>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1772,11 +1884,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="T10" t="n">
-        <v>410.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.0</v>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>410.0</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1793,8 +1909,10 @@
           <t>normal</t>
         </is>
       </c>
-      <c r="AA10" t="n">
-        <v>0.0</v>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -1806,14 +1924,20 @@
           <t>AGI</t>
         </is>
       </c>
-      <c r="AE10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1.0</v>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
@@ -1835,11 +1959,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AM10" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3000.0</v>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
@@ -1856,16 +1984,20 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="AX10" t="n">
-        <v>950.0</v>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>950.0</t>
+        </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="BA10" t="n">
-        <v>1.0</v>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BC10" t="inlineStr">
         <is>
@@ -1877,16 +2009,20 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="BG10" t="n">
-        <v>1000.0</v>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BJ10" t="n">
-        <v>1.0</v>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BK10" t="inlineStr">
         <is>
@@ -1898,8 +2034,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BO10" t="n">
-        <v>1.0</v>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
@@ -1921,8 +2059,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BT10" t="n">
-        <v>1.0</v>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
@@ -1976,11 +2116,15 @@
           <t>units\human\HeroPaladin\HeroPaladin.mdx</t>
         </is>
       </c>
-      <c r="O11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.0</v>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1992,11 +2136,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="T11" t="n">
-        <v>410.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.0</v>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>410.0</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -2013,8 +2161,10 @@
           <t>normal</t>
         </is>
       </c>
-      <c r="AA11" t="n">
-        <v>0.0</v>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2026,14 +2176,20 @@
           <t>INT</t>
         </is>
       </c>
-      <c r="AE11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1.0</v>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
@@ -2055,11 +2211,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AM11" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3000.0</v>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
@@ -2076,16 +2236,20 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="AX11" t="n">
-        <v>950.0</v>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>950.0</t>
+        </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="BA11" t="n">
-        <v>1.0</v>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BC11" t="inlineStr">
         <is>
@@ -2097,16 +2261,20 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="BG11" t="n">
-        <v>1000.0</v>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BJ11" t="n">
-        <v>1.0</v>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BK11" t="inlineStr">
         <is>
@@ -2118,8 +2286,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BO11" t="n">
-        <v>1.0</v>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
@@ -2141,8 +2311,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BT11" t="n">
-        <v>1.0</v>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
@@ -2196,11 +2368,15 @@
           <t>units\nightelf\HeroMoonPriestess\HeroMoonPriestess.mdx</t>
         </is>
       </c>
-      <c r="O12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.0</v>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -2212,11 +2388,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="T12" t="n">
-        <v>410.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.0</v>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>410.0</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -2233,8 +2413,10 @@
           <t>normal</t>
         </is>
       </c>
-      <c r="AA12" t="n">
-        <v>0.0</v>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2246,14 +2428,20 @@
           <t>INT</t>
         </is>
       </c>
-      <c r="AE12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1.0</v>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
@@ -2275,11 +2463,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AM12" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3000.0</v>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
@@ -2296,16 +2488,20 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="AX12" t="n">
-        <v>950.0</v>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>950.0</t>
+        </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="BA12" t="n">
-        <v>1.0</v>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BC12" t="inlineStr">
         <is>
@@ -2317,16 +2513,20 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="BG12" t="n">
-        <v>1000.0</v>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BJ12" t="n">
-        <v>1.0</v>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BK12" t="inlineStr">
         <is>
@@ -2338,8 +2538,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BO12" t="n">
-        <v>1.0</v>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
@@ -2361,8 +2563,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BT12" t="n">
-        <v>1.0</v>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
@@ -2396,36 +2600,50 @@
           <t>近战单位</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100.0</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="K13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.0</v>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="S13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.0</v>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -2437,20 +2655,30 @@
           <t>amph</t>
         </is>
       </c>
-      <c r="AM13" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>1.0</v>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
@@ -2467,8 +2695,10 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="AX13" t="n">
-        <v>900.0</v>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>900.0</t>
+        </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
@@ -2485,39 +2715,55 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BF13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>128.0</v>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
       </c>
       <c r="BK13" t="inlineStr">
         <is>
           <t>1000.0</t>
         </is>
       </c>
-      <c r="BL13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0.0</v>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="BT13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0.01</v>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="BY13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2541,36 +2787,50 @@
           <t>远程单位</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100.0</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="K14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.0</v>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="S14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.0</v>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -2582,20 +2842,30 @@
           <t>amph</t>
         </is>
       </c>
-      <c r="AM14" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>1.0</v>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
@@ -2612,8 +2882,10 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="AX14" t="n">
-        <v>900.0</v>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>900.0</t>
+        </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
@@ -2630,39 +2902,55 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BF14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>128.0</v>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
       </c>
       <c r="BK14" t="inlineStr">
         <is>
           <t>1000.0</t>
         </is>
       </c>
-      <c r="BL14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0.0</v>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="BT14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0.01</v>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="BV14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="BY14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2686,8 +2974,10 @@
           <t>NPC单位</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>10000.0</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -2699,47 +2989,65 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="O15" t="n">
-        <v>0.0</v>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
           <t>Aneu,Asid,Avul,Asud,Apit</t>
         </is>
       </c>
-      <c r="T15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.0</v>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AM15" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1000.0</v>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
       </c>
       <c r="BD15" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BH15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>0.01</v>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="BX15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BY15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2763,8 +3071,10 @@
           <t>NPC飞行单位</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>10000.0</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -2776,47 +3086,65 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="O16" t="n">
-        <v>0.0</v>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
           <t>Aneu,Asid,Avul,Asud,Apit</t>
         </is>
       </c>
-      <c r="T16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.0</v>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="AM16" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1000.0</v>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
       </c>
       <c r="BD16" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BH16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0.01</v>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="BX16" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BY16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2840,8 +3168,10 @@
           <t>宝宝助手</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>1.0E8</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1.0E8</t>
+        </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -2853,83 +3183,115 @@
           <t>units\critters\SnowOwl\SnowOwl.mdx</t>
         </is>
       </c>
-      <c r="O17" t="n">
-        <v>0.0</v>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
           <t>Avul,AInv</t>
         </is>
       </c>
-      <c r="T17" t="n">
-        <v>522.0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.0</v>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>522.0</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AA17" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1000.0</v>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="AK17" t="n">
-        <v>240.0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1000.0</v>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BB17" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>2.99</v>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BE17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0.0</v>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BU17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>0.01</v>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="BY17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2953,19 +3315,25 @@
           <t>防御塔</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.0</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="U18" t="n">
-        <v>0.0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
@@ -2977,11 +3345,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AM18" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1000.0</v>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
@@ -2993,11 +3365,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BW18" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>0.01</v>
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="BY18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -3021,19 +3397,25 @@
           <t>哨塔</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.0</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="U19" t="n">
-        <v>0.0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
@@ -3045,11 +3427,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="AM19" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1000.0</v>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
@@ -3061,11 +3447,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BW19" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0.01</v>
+      <c r="BW19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="BY19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -3089,19 +3479,25 @@
           <t>飞行单位</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.0</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="U20" t="n">
-        <v>0.0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -3113,11 +3509,15 @@
           <t>amph</t>
         </is>
       </c>
-      <c r="AM20" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1000.0</v>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
@@ -3129,11 +3529,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BW20" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0.01</v>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="BY20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
     </row>
   </sheetData>
